--- a/test_plot_data.xlsx
+++ b/test_plot_data.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richardcouperthwaite\Documents\GitHub\plt-editor-tool\pltEditorTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\plt-editor-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB9250-0321-46E7-B64A-ECAAE755F068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -43,11 +53,14 @@
   <si>
     <t>fill_alt</t>
   </si>
+  <si>
+    <t>nan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,11 +371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F102"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103:L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,6 +4244,166 @@
         <v>0.45202578717835057</v>
       </c>
     </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+      <c r="K103" t="s">
+        <v>6</v>
+      </c>
+      <c r="L103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+      <c r="K104" t="s">
+        <v>6</v>
+      </c>
+      <c r="L104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+      <c r="K105" t="s">
+        <v>6</v>
+      </c>
+      <c r="L105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+      <c r="K106" t="s">
+        <v>6</v>
+      </c>
+      <c r="L106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107" t="s">
+        <v>6</v>
+      </c>
+      <c r="K107" t="s">
+        <v>6</v>
+      </c>
+      <c r="L107" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
